--- a/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
+++ b/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\vini java\SevenRmartSuperMarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE36A6B-0CF9-4CD8-8A5B-6C88A5976B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EF36A8-7E44-4B82-BFD2-47310E40A8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>morning</t>
   </si>
 </sst>
 </file>
@@ -417,14 +429,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11B0ADF-6A21-453E-B14B-88CC56F2B8EA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
+++ b/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\vini java\SevenRmartSuperMarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EF36A8-7E44-4B82-BFD2-47310E40A8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED5F936-E6FD-4908-B474-012B467862BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
+    <workbookView xWindow="5115" yWindow="2490" windowWidth="15375" windowHeight="7875" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="Home_page" sheetId="2" r:id="rId2"/>
+    <sheet name="AdminUsers_page" sheetId="3" r:id="rId3"/>
+    <sheet name="ManageExpense_Page" sheetId="4" r:id="rId4"/>
+    <sheet name="ManageProduct_Page" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>admin</t>
   </si>
@@ -47,19 +46,59 @@
   </si>
   <si>
     <t>morning</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>rgba(255, 193, 7, 1)</t>
+  </si>
+  <si>
+    <t>Do you want to delete this Expense Record?</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin</t>
+  </si>
+  <si>
+    <t>center</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,8 +121,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,32 +444,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227F5145-E29A-4512-A32E-8601A73DCC05}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -431,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11B0ADF-6A21-453E-B14B-88CC56F2B8EA}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -439,21 +491,129 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7877DB-47DE-4668-8717-7FBD3879897E}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4590D029-8BD6-49C1-BD37-03331BA834B0}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CD4A09-3A0B-4273-AA07-987832086B42}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B842BB-7D44-4ED4-B813-5AAF30EA2E56}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CA2F31-F4F1-4436-8B75-3001B085FC0D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
+++ b/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\vini java\SevenRmartSuperMarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED5F936-E6FD-4908-B474-012B467862BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A5685A-DF84-4640-93A7-FE57F010CD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="2490" windowWidth="15375" windowHeight="7875" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
+    <workbookView xWindow="5115" yWindow="2490" windowWidth="15375" windowHeight="7875" firstSheet="4" activeTab="5" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="AdminUsers_page" sheetId="3" r:id="rId3"/>
     <sheet name="ManageExpense_Page" sheetId="4" r:id="rId4"/>
     <sheet name="ManageProduct_Page" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="MangeSlider_Page" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>admin</t>
   </si>
@@ -67,6 +68,12 @@
   </si>
   <si>
     <t>center</t>
+  </si>
+  <si>
+    <t>https://www.google.com/</t>
+  </si>
+  <si>
+    <t>List Sliders</t>
   </si>
 </sst>
 </file>
@@ -446,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227F5145-E29A-4512-A32E-8601A73DCC05}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -596,6 +603,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B842BB-7D44-4ED4-B813-5AAF30EA2E56}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2AE38A-0502-45F9-8515-2A0B9ACEC09A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -606,7 +642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CA2F31-F4F1-4436-8B75-3001B085FC0D}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
+++ b/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\vini java\SevenRmartSuperMarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A5685A-DF84-4640-93A7-FE57F010CD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6014D35D-E36F-4772-B513-0522490CE2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="2490" windowWidth="15375" windowHeight="7875" firstSheet="4" activeTab="5" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
+    <workbookView xWindow="5115" yWindow="2490" windowWidth="15375" windowHeight="7875" firstSheet="5" activeTab="7" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="ManageExpense_Page" sheetId="4" r:id="rId4"/>
     <sheet name="ManageProduct_Page" sheetId="5" r:id="rId5"/>
     <sheet name="MangeSlider_Page" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId8"/>
+    <sheet name="ManageOfferCode_Page" sheetId="8" r:id="rId7"/>
+    <sheet name="ManagePages_Page" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>admin</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>List Sliders</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
   </si>
 </sst>
 </file>
@@ -605,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B842BB-7D44-4ED4-B813-5AAF30EA2E56}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -637,19 +646,46 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CA2F31-F4F1-4436-8B75-3001B085FC0D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
+++ b/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\vini java\SevenRmartSuperMarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6014D35D-E36F-4772-B513-0522490CE2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791B521E-A27A-4F3B-B484-AEFF6D3991F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="2490" windowWidth="15375" windowHeight="7875" firstSheet="5" activeTab="7" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="MangeSlider_Page" sheetId="6" r:id="rId6"/>
     <sheet name="ManageOfferCode_Page" sheetId="8" r:id="rId7"/>
     <sheet name="ManagePages_Page" sheetId="7" r:id="rId8"/>
+    <sheet name="SearchLocation_Page" sheetId="9" r:id="rId9"/>
+    <sheet name="PushNotifications_Page" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>admin</t>
   </si>
@@ -83,13 +85,28 @@
   </si>
   <si>
     <t>Watermelon</t>
+  </si>
+  <si>
+    <t>New Church Street</t>
+  </si>
+  <si>
+    <t>Ramadan Offer</t>
+  </si>
+  <si>
+    <t>25% offer</t>
+  </si>
+  <si>
+    <t>Christmas Offer</t>
+  </si>
+  <si>
+    <t>50% offer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +133,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -146,6 +169,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,6 +519,41 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF338E1-594A-4A79-ACB4-974A2B034800}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11B0ADF-6A21-453E-B14B-88CC56F2B8EA}">
   <dimension ref="A1:B2"/>
@@ -661,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CA2F31-F4F1-4436-8B75-3001B085FC0D}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -688,4 +747,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352B2C89-1EED-420F-B3F6-D59AA9A0FD9D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
+++ b/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\vini java\SevenRmartSuperMarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791B521E-A27A-4F3B-B484-AEFF6D3991F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B694D2-1CB0-4AF8-9174-2A17032D08D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="ManagePages_Page" sheetId="7" r:id="rId8"/>
     <sheet name="SearchLocation_Page" sheetId="9" r:id="rId9"/>
     <sheet name="PushNotifications_Page" sheetId="10" r:id="rId10"/>
+    <sheet name="ManageUsers_Page" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>admin</t>
   </si>
@@ -100,6 +101,18 @@
   </si>
   <si>
     <t>50% offer</t>
+  </si>
+  <si>
+    <t>anjana</t>
+  </si>
+  <si>
+    <t>Rakhi Prasad</t>
+  </si>
+  <si>
+    <t>SANUMARIYA Raju</t>
+  </si>
+  <si>
+    <t>Tester 1</t>
   </si>
 </sst>
 </file>
@@ -523,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF338E1-594A-4A79-ACB4-974A2B034800}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -554,6 +567,45 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF241C6B-31B0-433B-A005-91736A6C911C}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11B0ADF-6A21-453E-B14B-88CC56F2B8EA}">
   <dimension ref="A1:B2"/>

--- a/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
+++ b/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\vini java\SevenRmartSuperMarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B694D2-1CB0-4AF8-9174-2A17032D08D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478260B9-42E3-445A-BB00-14A3CDD53F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="SearchLocation_Page" sheetId="9" r:id="rId9"/>
     <sheet name="PushNotifications_Page" sheetId="10" r:id="rId10"/>
     <sheet name="ManageUsers_Page" sheetId="11" r:id="rId11"/>
+    <sheet name="PaymentMethods_Page" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>admin</t>
   </si>
@@ -113,6 +114,36 @@
   </si>
   <si>
     <t>Tester 1</t>
+  </si>
+  <si>
+    <t>Federal Bank</t>
+  </si>
+  <si>
+    <t>Emirates NBD</t>
+  </si>
+  <si>
+    <t>Islamic Bank</t>
+  </si>
+  <si>
+    <t>Panjab National Bank</t>
+  </si>
+  <si>
+    <t>testedit</t>
+  </si>
+  <si>
+    <t>manu91</t>
+  </si>
+  <si>
+    <t>johnny.thompson</t>
+  </si>
+  <si>
+    <t>sueann.runolfsdottir</t>
+  </si>
+  <si>
+    <t>Vyshna</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
 </sst>
 </file>
@@ -153,15 +184,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,11 +206,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -183,6 +235,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF241C6B-31B0-433B-A005-91736A6C911C}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -606,6 +664,50 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C78722C-F628-4E88-9249-4AF2DF64EF08}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11B0ADF-6A21-453E-B14B-88CC56F2B8EA}">
   <dimension ref="A1:B2"/>
@@ -639,29 +741,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7877DB-47DE-4668-8717-7FBD3879897E}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
+++ b/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\vini java\SevenRmartSuperMarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478260B9-42E3-445A-BB00-14A3CDD53F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA153A71-0BD7-44F0-8501-32911450BAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="Home_page" sheetId="2" r:id="rId2"/>
     <sheet name="AdminUsers_page" sheetId="3" r:id="rId3"/>
-    <sheet name="ManageExpense_Page" sheetId="4" r:id="rId4"/>
-    <sheet name="ManageProduct_Page" sheetId="5" r:id="rId5"/>
-    <sheet name="MangeSlider_Page" sheetId="6" r:id="rId6"/>
-    <sheet name="ManageOfferCode_Page" sheetId="8" r:id="rId7"/>
-    <sheet name="ManagePages_Page" sheetId="7" r:id="rId8"/>
-    <sheet name="SearchLocation_Page" sheetId="9" r:id="rId9"/>
-    <sheet name="PushNotifications_Page" sheetId="10" r:id="rId10"/>
-    <sheet name="ManageUsers_Page" sheetId="11" r:id="rId11"/>
-    <sheet name="PaymentMethods_Page" sheetId="12" r:id="rId12"/>
+    <sheet name="ManageNews_Page" sheetId="13" r:id="rId4"/>
+    <sheet name="ManageExpense_Page" sheetId="4" r:id="rId5"/>
+    <sheet name="ManageProduct_Page" sheetId="5" r:id="rId6"/>
+    <sheet name="MangeSlider_Page" sheetId="6" r:id="rId7"/>
+    <sheet name="ManageOfferCode_Page" sheetId="8" r:id="rId8"/>
+    <sheet name="ManagePages_Page" sheetId="7" r:id="rId9"/>
+    <sheet name="SearchLocation_Page" sheetId="9" r:id="rId10"/>
+    <sheet name="PushNotifications_Page" sheetId="10" r:id="rId11"/>
+    <sheet name="ManageUsers_Page" sheetId="11" r:id="rId12"/>
+    <sheet name="PaymentMethods_Page" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>admin</t>
   </si>
@@ -144,6 +145,21 @@
   </si>
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>East Santo</t>
+  </si>
+  <si>
+    <t>Homenickton</t>
+  </si>
+  <si>
+    <t>Port Horacemouth</t>
   </si>
 </sst>
 </file>
@@ -238,7 +254,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,6 +607,30 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352B2C89-1EED-420F-B3F6-D59AA9A0FD9D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF338E1-594A-4A79-ACB4-974A2B034800}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -625,7 +665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF241C6B-31B0-433B-A005-91736A6C911C}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -664,7 +704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C78722C-F628-4E88-9249-4AF2DF64EF08}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -743,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7877DB-47DE-4668-8717-7FBD3879897E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -796,6 +836,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CD9AA4-B671-49FB-8528-7A3B574DAACD}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4590D029-8BD6-49C1-BD37-03331BA834B0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -822,7 +906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CD4A09-3A0B-4273-AA07-987832086B42}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -851,7 +935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B842BB-7D44-4ED4-B813-5AAF30EA2E56}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -880,7 +964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2AE38A-0502-45F9-8515-2A0B9ACEC09A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -898,7 +982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CA2F31-F4F1-4436-8B75-3001B085FC0D}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -929,28 +1013,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352B2C89-1EED-420F-B3F6-D59AA9A0FD9D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
+++ b/SevenRmartSuperMarket/target/classes/Resources/SevenRmartTestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\vini java\SevenRmartSuperMarket\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA153A71-0BD7-44F0-8501-32911450BAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8696BA5-DB9A-4170-8027-294FC0CE0A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6AF48CE7-260B-4320-A517-5B26BF242A70}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>admin</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Port Horacemouth</t>
+  </si>
+  <si>
+    <t>.........RESULT NOT FOUND.......</t>
   </si>
 </sst>
 </file>
@@ -783,13 +786,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7877DB-47DE-4668-8717-7FBD3879897E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
     <col min="2" max="2" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -810,6 +813,9 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
@@ -839,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CD9AA4-B671-49FB-8528-7A3B574DAACD}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
